--- a/medicine/Enfance/Marie_Hall_Ets/Marie_Hall_Ets.xlsx
+++ b/medicine/Enfance/Marie_Hall_Ets/Marie_Hall_Ets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Hall Ets, née le 16 décembre 1895 à Milwaukee (Wisconsin) et morte le 17 janvier 1984 à Inverness (Floride), est une écrivaine et illustratrice américaine, notamment de littérature jeunesse[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Hall Ets, née le 16 décembre 1895 à Milwaukee (Wisconsin) et morte le 17 janvier 1984 à Inverness (Floride), est une écrivaine et illustratrice américaine, notamment de littérature jeunesse,.
 </t>
         </is>
       </c>
@@ -511,19 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la sœur du philosophe E.W. Hall et la petite-fille du médecin et poète John W. Carhart.  
-Études
-Marie Hall Ets suit deux ans d'études à la New York School of Fine and Applied Arts, un an à la Chicago School of Civics and Philanthropy, puis à l'Art Institute de cette même ville. Elle fréquente l'université Lawrence d'Appleton dans le Wisconsin. Elle rejoint enfin l'université Columbia où elle se forme notamment à la psychologie de l'enfant.  
-Œuvre littéraire pour enfants
-Son intérêt pour les très jeunes enfants influence sa création littéraire, et son travail influence notamment les auteurs-illustrateurs Michel Gay, Akiko Hayashi et Frédéric Stehr. L'album Dans la forêt, créé pendant la maladie qui fut fatale à son second mari, Harold Norris Ets, mêle réalité et imaginaire, tristesse et vie. 
-En 1960, Marie Hall Ets a remporté la médaille Caldecott annuelle pour ses illustrations de Nine Days to Christmas (Neuf jours à Noël), dont elle a écrit le texte avec Aurora Labastida. Auparavant, pour la même récompense, Just Me (À ma façon), Mr. T. W. Anthony Woo , et In the Forest (Dans la forêt) ont été tous trois des livres d'honneur de la Médaille Caldecott. Les illustrations au fusain en noir et blanc de Just Me « prennent presque l'apparence de gravures sur bois » et sont de style similaire aux illustrations de In the Forest. Constantine Georgiou commente dans Les enfants et leur littérature que les « histoires d'images et les livres faciles à lire » d'Ets (avec ceux de Maurice Sendak) « sont remplis de touches humaines attachantes et pittoresques, les plaçant précisément sous le bon angle de la vie dans la petite enfance. » Jouer avec moi , dit Georgiou, est « un petit conte tendre, délicatement illustré dans des pastels fragiles qui font écho à l'humeur calme de l'histoire ».
-Travail social et écriture pour adultes
-En 1918, Marie Hall Ets s'est rendue à Chicago, où elle est devenue travailleuse sociale au Chicago Commons, une maison d'habitation au nord-ouest de la ville. Elle y a rencontré Ines Cassettari, une immigrée italienne qui travaillait dans la colonie. Marie Hall Ets a transcrit l'autobiographie de Ines Cassettari, et le livre a ensuite été publié sous le titre Rosa : The Life of an Italian Immigrant.
-Elle travailla également pour la Croix Rouge en Tchécoslovaquie. 
-Vie privée
-Elle s'est mariée deux fois, et elle a été deux fois veuve. Elle est morte en 1984. 
 </t>
         </is>
       </c>
@@ -549,12 +553,164 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Hall Ets suit deux ans d'études à la New York School of Fine and Applied Arts, un an à la Chicago School of Civics and Philanthropy, puis à l'Art Institute de cette même ville. Elle fréquente l'université Lawrence d'Appleton dans le Wisconsin. Elle rejoint enfin l'université Columbia où elle se forme notamment à la psychologie de l'enfant.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son intérêt pour les très jeunes enfants influence sa création littéraire, et son travail influence notamment les auteurs-illustrateurs Michel Gay, Akiko Hayashi et Frédéric Stehr. L'album Dans la forêt, créé pendant la maladie qui fut fatale à son second mari, Harold Norris Ets, mêle réalité et imaginaire, tristesse et vie. 
+En 1960, Marie Hall Ets a remporté la médaille Caldecott annuelle pour ses illustrations de Nine Days to Christmas (Neuf jours à Noël), dont elle a écrit le texte avec Aurora Labastida. Auparavant, pour la même récompense, Just Me (À ma façon), Mr. T. W. Anthony Woo , et In the Forest (Dans la forêt) ont été tous trois des livres d'honneur de la Médaille Caldecott. Les illustrations au fusain en noir et blanc de Just Me « prennent presque l'apparence de gravures sur bois » et sont de style similaire aux illustrations de In the Forest. Constantine Georgiou commente dans Les enfants et leur littérature que les « histoires d'images et les livres faciles à lire » d'Ets (avec ceux de Maurice Sendak) « sont remplis de touches humaines attachantes et pittoresques, les plaçant précisément sous le bon angle de la vie dans la petite enfance. » Jouer avec moi , dit Georgiou, est « un petit conte tendre, délicatement illustré dans des pastels fragiles qui font écho à l'humeur calme de l'histoire ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travail social et écriture pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1918, Marie Hall Ets s'est rendue à Chicago, où elle est devenue travailleuse sociale au Chicago Commons, une maison d'habitation au nord-ouest de la ville. Elle y a rencontré Ines Cassettari, une immigrée italienne qui travaillait dans la colonie. Marie Hall Ets a transcrit l'autobiographie de Ines Cassettari, et le livre a ensuite été publié sous le titre Rosa : The Life of an Italian Immigrant.
+Elle travailla également pour la Croix Rouge en Tchécoslovaquie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'est mariée deux fois, et elle a été deux fois veuve. Elle est morte en 1984. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Hall_Ets</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a publié de nombreux ouvrages[3],[4],[5], dont :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle a publié de nombreux ouvrages dont :
 publiés en français
 À ma façon, traduit par Catherine Chaine, traduction de : Just me, l'École des loisirs, 1980
 Dans la forêt, traduit par Catherine Chaine, traduction de : In the forest, l'École des loisirs, 1981
@@ -571,35 +727,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Marie_Hall_Ets</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie_Hall_Ets</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1945 : Finaliste Médaille Caldecott pour In the Forest (Dans la forêt)
 1952 : Finaliste Médaille Caldecott pour Mr. T. W. Anthony Woo 
-1956 : (international) « Honnor List »[6], de l' IBBY, pour Play with me (Joue avec moi)
+1956 : (international) « Honnor List », de l' IBBY, pour Play with me (Joue avec moi)
 1956 : Finaliste Médaille Caldecott pour Play with me (Joue avec moi)
 1957 : Finaliste Médaille Caldecott pour Mr. Penny's Race Horse
 1960 : Médaille Caldecott  pour Nine Days to Christmas (Neuf jours à Noël)
